--- a/conditions/5_03_mod_batch_adsorp/sim_conds.xlsx
+++ b/conditions/5_03_mod_batch_adsorp/sim_conds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\5_02_mod_pressure_obs2calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\5_03_mod_batch_adsorp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8AA461-3ABA-4B33-9D99-610F4914E6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33596A78-20F7-4442-A481-E4968E0BD5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="187">
   <si>
     <t>触媒充填層条件</t>
   </si>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>v_pipespace</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>V_equalpipespace</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1198,8 +1202,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1605,6 +1609,13 @@
       <c r="P11" s="8">
         <v>18</v>
       </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
@@ -1646,13 +1657,6 @@
         <f>P6/P9</f>
         <v>0.44</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
@@ -1683,15 +1687,13 @@
         <f>P8/P9</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>2</v>
-      </c>
+      <c r="R13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
@@ -1729,13 +1731,13 @@
         <v>1.8829980740000001</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>88</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1777,15 +1779,14 @@
       <c r="P15" s="7">
         <v>1.1922472150000001</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>103</v>
+      <c r="R15" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="22">
-        <f>PI()*T14^2/4</f>
-        <v>4.9087385212340522E-4</v>
+        <v>24</v>
+      </c>
+      <c r="T15" s="19">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1826,14 +1827,15 @@
         <f>P14*P12+P15*P13</f>
         <v>1.4961775929600001</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>110</v>
+      <c r="R16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="21">
-        <v>5.0000000000000001E-4</v>
+        <v>34</v>
+      </c>
+      <c r="T16" s="22">
+        <f>PI()*T15^2/4</f>
+        <v>4.9087385212340522E-4</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1873,15 +1875,14 @@
       <c r="P17" s="7">
         <v>1.6083291999999999E-2</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>117</v>
+      <c r="R17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="20">
-        <f>T16+D22</f>
-        <v>6.4114706971857196E-3</v>
+        <v>44</v>
+      </c>
+      <c r="T17" s="21">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1922,6 +1923,16 @@
       <c r="P18" s="7">
         <v>2.5327674000000001E-2</v>
       </c>
+      <c r="R18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="20">
+        <f>T17+D22</f>
+        <v>6.4114706971857196E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
@@ -1953,13 +1964,6 @@
         <f>P17*P12+P18*P13</f>
         <v>2.1260145920000001E-2</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
@@ -1989,15 +1993,13 @@
       <c r="P20" s="7">
         <v>1.4600000000000001E-5</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="R20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
@@ -2029,13 +2031,13 @@
         <v>1.7499999999999998E-5</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2070,10 +2072,10 @@
         <v>1.6223999999999999E-5</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="T22" s="8">
         <v>1</v>
@@ -2087,7 +2089,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -2097,6 +2099,15 @@
       </c>
       <c r="P23" s="7">
         <v>411.4</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2104,8 +2115,8 @@
       <c r="C24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="7">
-        <v>0.03</v>
+      <c r="D24" s="19">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>
@@ -2196,8 +2207,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D25"/>
+    <sheetView topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2603,6 +2614,13 @@
       <c r="P11" s="8">
         <v>18</v>
       </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
@@ -2644,13 +2662,6 @@
         <f>P6/P9</f>
         <v>0.44</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
@@ -2681,15 +2692,13 @@
         <f>P8/P9</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>2</v>
-      </c>
+      <c r="R13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
@@ -2727,13 +2736,13 @@
         <v>1.8829980740000001</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>88</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2775,15 +2784,14 @@
       <c r="P15" s="7">
         <v>1.1922472150000001</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>103</v>
+      <c r="R15" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="9">
-        <f>PI()*T14^2/4</f>
-        <v>4.9087385212340522E-4</v>
+        <v>24</v>
+      </c>
+      <c r="T15" s="19">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2824,14 +2832,15 @@
         <f>P14*P12+P15*P13</f>
         <v>1.4961775929600001</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>110</v>
+      <c r="R16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="21">
-        <v>5.0000000000000001E-4</v>
+        <v>34</v>
+      </c>
+      <c r="T16" s="9">
+        <f>PI()*T15^2/4</f>
+        <v>4.9087385212340522E-4</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2871,15 +2880,14 @@
       <c r="P17" s="7">
         <v>1.6083291999999999E-2</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>117</v>
+      <c r="R17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="9">
-        <f>T16+D22</f>
-        <v>6.4114706971857196E-3</v>
+        <v>44</v>
+      </c>
+      <c r="T17" s="21">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2920,6 +2928,16 @@
       <c r="P18" s="7">
         <v>2.5327674000000001E-2</v>
       </c>
+      <c r="R18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="9">
+        <f>T17+D22</f>
+        <v>6.4114706971857196E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
@@ -2951,13 +2969,6 @@
         <f>P17*P12+P18*P13</f>
         <v>2.1260145920000001E-2</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
@@ -2987,15 +2998,13 @@
       <c r="P20" s="7">
         <v>1.4600000000000001E-5</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="R20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
@@ -3027,13 +3036,13 @@
         <v>1.7499999999999998E-5</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3068,10 +3077,10 @@
         <v>1.6223999999999999E-5</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="T22" s="8">
         <v>1</v>
@@ -3085,7 +3094,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -3095,6 +3104,15 @@
       </c>
       <c r="P23" s="7">
         <v>411.4</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3102,8 +3120,8 @@
       <c r="C24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="7">
-        <v>0.03</v>
+      <c r="D24" s="19">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>
@@ -3194,8 +3212,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3601,6 +3619,13 @@
       <c r="P11" s="8">
         <v>18</v>
       </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
@@ -3642,13 +3667,6 @@
         <f>P6/P9</f>
         <v>0.44</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
@@ -3679,15 +3697,13 @@
         <f>P8/P9</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>2</v>
-      </c>
+      <c r="R13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
@@ -3725,13 +3741,13 @@
         <v>1.8829980740000001</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>88</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3773,15 +3789,14 @@
       <c r="P15" s="7">
         <v>1.1922472150000001</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>103</v>
+      <c r="R15" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="9">
-        <f>PI()*T14^2/4</f>
-        <v>4.9087385212340522E-4</v>
+        <v>24</v>
+      </c>
+      <c r="T15" s="19">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3822,14 +3837,15 @@
         <f>P14*P12+P15*P13</f>
         <v>1.4961775929600001</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>110</v>
+      <c r="R16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="21">
-        <v>5.0000000000000001E-4</v>
+        <v>34</v>
+      </c>
+      <c r="T16" s="9">
+        <f>PI()*T15^2/4</f>
+        <v>4.9087385212340522E-4</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3869,15 +3885,14 @@
       <c r="P17" s="7">
         <v>1.6083291999999999E-2</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>117</v>
+      <c r="R17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="9">
-        <f>T16+D22</f>
-        <v>6.4114706971857196E-3</v>
+        <v>44</v>
+      </c>
+      <c r="T17" s="21">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3918,6 +3933,16 @@
       <c r="P18" s="7">
         <v>2.5327674000000001E-2</v>
       </c>
+      <c r="R18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="9">
+        <f>T17+D22</f>
+        <v>6.4114706971857196E-3</v>
+      </c>
     </row>
     <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
@@ -3949,13 +3974,6 @@
         <f>P17*P12+P18*P13</f>
         <v>2.1260145920000001E-2</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
@@ -3985,15 +4003,13 @@
       <c r="P20" s="7">
         <v>1.4600000000000001E-5</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="R20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
@@ -4025,13 +4041,13 @@
         <v>1.7499999999999998E-5</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4066,10 +4082,10 @@
         <v>1.6223999999999999E-5</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="T22" s="8">
         <v>1</v>
@@ -4083,7 +4099,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -4093,6 +4109,15 @@
       </c>
       <c r="P23" s="7">
         <v>411.4</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4100,8 +4125,8 @@
       <c r="C24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="7">
-        <v>0.03</v>
+      <c r="D24" s="19">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>

--- a/conditions/5_03_mod_batch_adsorp/sim_conds.xlsx
+++ b/conditions/5_03_mod_batch_adsorp/sim_conds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\conditions\5_03_mod_batch_adsorp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33596A78-20F7-4442-A481-E4968E0BD5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DD232-351F-41C6-924A-D4E1E2180EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -820,6 +820,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,8 +1205,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11:T11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1419,7 @@
       <c r="S7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="25">
         <f>PI()*T6^2/4</f>
         <v>7.8539816339744827E-5</v>
       </c>
@@ -1466,9 +1469,9 @@
       <c r="S8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="9">
-        <f>T7*T6</f>
-        <v>7.8539816339744833E-7</v>
+      <c r="T8" s="25">
+        <f>T7*T5+T11</f>
+        <v>5.0157079632679492E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1614,7 +1617,7 @@
         <v>186</v>
       </c>
       <c r="T11" s="19">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2089,7 +2092,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -2116,7 +2119,7 @@
         <v>185</v>
       </c>
       <c r="D24" s="19">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>
@@ -2207,8 +2210,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11:T11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2424,7 @@
       <c r="S7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="25">
         <f>PI()*T6^2/4</f>
         <v>7.8539816339744827E-5</v>
       </c>
@@ -2471,9 +2474,9 @@
       <c r="S8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="9">
-        <f>T7*T6</f>
-        <v>7.8539816339744833E-7</v>
+      <c r="T8" s="25">
+        <f>T7*T5+T11</f>
+        <v>5.0157079632679492E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2619,7 +2622,7 @@
         <v>186</v>
       </c>
       <c r="T11" s="19">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3094,7 +3097,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -3121,7 +3124,7 @@
         <v>185</v>
       </c>
       <c r="D24" s="19">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>
@@ -3212,8 +3215,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:T23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3426,7 +3429,7 @@
       <c r="S7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="25">
         <f>PI()*T6^2/4</f>
         <v>7.8539816339744827E-5</v>
       </c>
@@ -3476,9 +3479,9 @@
       <c r="S8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="9">
-        <f>T7*T6</f>
-        <v>7.8539816339744833E-7</v>
+      <c r="T8" s="20">
+        <f>T7*T5+T11</f>
+        <v>5.0157079632679492E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3624,7 +3627,7 @@
         <v>186</v>
       </c>
       <c r="T11" s="19">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4099,7 +4102,7 @@
         <v>150</v>
       </c>
       <c r="D23" s="19">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>151</v>
@@ -4126,7 +4129,7 @@
         <v>185</v>
       </c>
       <c r="D24" s="19">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>153</v>
